--- a/va_facility_data_2025-02-20/Cedar Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cedar%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cedar Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cedar%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R050e10cd93af4635911f6a76767a73d9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd3e2dbb6d69742129bc12bda2607d198"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf17bc81d26634fb1b7b073f363faf580"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R60c0e93f0782422da6aa4c1c87382c4f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6c8d3aa9d09946f9b9ebfb386f6ec4c4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re89755e5647947dabecab033d36d8cd4"/>
   </x:sheets>
 </x:workbook>
 </file>
